--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1478767.84884401</v>
+        <v>1540548.847127591</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484438</v>
+        <v>492028.9342484439</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>104.7827402069273</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>120.5073783338391</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>137.8413084154419</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>96.03094661918841</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>311.5289175475161</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>65.62674500628661</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1069,10 +1069,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>33.04629749556297</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.50790004566774</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,7 +1139,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>397.4772349426468</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>232.0556482780943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1430,10 +1430,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>133.208388787588</v>
       </c>
       <c r="X11" t="n">
-        <v>147.3525275309929</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>98.73120706589796</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1576,13 +1576,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>52.51170991984807</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1613,7 +1613,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>379.2924195143593</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>18.64034175572537</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225731</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,10 +1825,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>146.3752975271668</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>166.1625368329228</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>33.08339867820416</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>89.05336748755518</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2093,13 +2093,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>129.372720328348</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>91.39226931002285</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907088</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.55329631630673</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>52.51170991984807</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2716,10 +2716,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776708</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>45.61239570677289</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2953,10 +2953,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>52.79556056591021</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>98.3438513309559</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3196,7 +3196,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3205,7 +3205,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>63.51633119327901</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3424,13 +3424,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>159.0706943503433</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3475,7 +3475,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3484,7 +3484,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>221.1303354389408</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>50.38971918733606</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3679,7 +3679,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.92574903169</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800047</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3901,7 +3901,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3916,7 +3916,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3961,10 +3961,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>154.7429394224643</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.1927963373144</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4028,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556909</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>212.7767073753817</v>
+        <v>129.7139627068456</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>626.6133988393539</v>
+        <v>976.7209085440079</v>
       </c>
       <c r="C2" t="n">
-        <v>520.7722471151849</v>
+        <v>942.6188397678353</v>
       </c>
       <c r="D2" t="n">
-        <v>488.9028663300335</v>
+        <v>506.7090549422798</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>72.93431010057496</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>524.3060841805643</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797686</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756281</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693174</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2151.645126566213</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1892.42282388323</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1529.805873817056</v>
       </c>
       <c r="W2" t="n">
-        <v>1476.301152404893</v>
+        <v>1124.95041922809</v>
       </c>
       <c r="X2" t="n">
-        <v>1461.199093024608</v>
+        <v>1003.225794648454</v>
       </c>
       <c r="Y2" t="n">
-        <v>1052.912969324262</v>
+        <v>998.9800749885117</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397428</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>446.7326829940193</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>800.5379433870891</v>
+        <v>526.7806337295219</v>
       </c>
       <c r="C4" t="n">
-        <v>800.5379433870891</v>
+        <v>354.2189222127469</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6599505886118</v>
+        <v>188.3409294142695</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>323.8657391213223</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>742.0756208892833</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>1077.736506291238</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1519.995309448882</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1939.664558674664</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645006</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214709</v>
       </c>
       <c r="S4" t="n">
-        <v>1578.764652604791</v>
+        <v>2274.705037512706</v>
       </c>
       <c r="T4" t="n">
-        <v>1332.885206183246</v>
+        <v>2028.825591091161</v>
       </c>
       <c r="U4" t="n">
-        <v>1332.885206183246</v>
+        <v>1750.392590344266</v>
       </c>
       <c r="V4" t="n">
-        <v>1045.929698053676</v>
+        <v>1463.437082214697</v>
       </c>
       <c r="W4" t="n">
-        <v>1045.929698053676</v>
+        <v>1191.410677800988</v>
       </c>
       <c r="X4" t="n">
-        <v>800.5379433870891</v>
+        <v>946.0189231344009</v>
       </c>
       <c r="Y4" t="n">
-        <v>800.5379433870891</v>
+        <v>718.5992524485091</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>991.4987273237359</v>
+        <v>863.8788077480212</v>
       </c>
       <c r="C5" t="n">
-        <v>957.3966585475632</v>
+        <v>829.7767389718487</v>
       </c>
       <c r="D5" t="n">
-        <v>528.8149842848316</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E5" t="n">
-        <v>100.2333100220999</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W5" t="n">
-        <v>1033.105672808467</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X5" t="n">
-        <v>1018.003613428182</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y5" t="n">
-        <v>1013.75789376824</v>
+        <v>1178.554482038442</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>579.3800998436539</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>579.3800998436539</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>579.3800998436539</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>409.6220960943911</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>232.9150420561473</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>67.32376708197498</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>67.32376708197498</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1270.644793662241</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>998.6183892485328</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>998.6183892485328</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>771.198718562641</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.3855594523341</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>930.2834906761614</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>494.3737058506058</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>464.639365049305</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>304.2846042752953</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743905</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873486</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172581</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925637</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925637</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1433.741318336671</v>
+        <v>1426.662190047585</v>
       </c>
       <c r="X8" t="n">
-        <v>1014.598854915981</v>
+        <v>1411.5601306673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1010.353135256039</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330011</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599548</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230028</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>36.77193545851275</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>36.77193545851275</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>36.77193545851275</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>36.77193545851275</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>36.77193545851275</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>217.6808149456963</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447915</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>950.2388210962217</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>777.6771095794467</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>611.7991167809694</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>442.0411130317067</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>265.3340589934629</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934629</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838374</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851275</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851275</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>36.77193545851275</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>491.8246367576079</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>903.2278548651821</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090963</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061305</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631009</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929006</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507461</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>1177.658491782114</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1177.658491782114</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1177.658491782114</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1177.658491782114</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>950.2388210962217</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5078,7 +5078,7 @@
         <v>3911.240480363478</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774512</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X11" t="n">
         <v>3357.544088874519</v>
@@ -5115,25 +5115,25 @@
         <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111519</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111519</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111519</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111519</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111519</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111519</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3408549543107</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1010.202862318824</v>
+        <v>944.0533615061028</v>
       </c>
       <c r="C13" t="n">
-        <v>837.6411508020492</v>
+        <v>771.4916499893277</v>
       </c>
       <c r="D13" t="n">
-        <v>671.763158003572</v>
+        <v>771.4916499893277</v>
       </c>
       <c r="E13" t="n">
-        <v>502.0051542543092</v>
+        <v>601.7336462400649</v>
       </c>
       <c r="F13" t="n">
-        <v>325.2981002160653</v>
+        <v>425.0265922018211</v>
       </c>
       <c r="G13" t="n">
         <v>325.2981002160653</v>
@@ -5224,25 +5224,25 @@
         <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2446.098318867742</v>
       </c>
       <c r="U13" t="n">
-        <v>2233.814818933569</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V13" t="n">
-        <v>1946.859310803999</v>
+        <v>1880.709809991278</v>
       </c>
       <c r="W13" t="n">
-        <v>1674.832906390291</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X13" t="n">
-        <v>1429.441151723703</v>
+        <v>1363.291650910982</v>
       </c>
       <c r="Y13" t="n">
-        <v>1202.021481037811</v>
+        <v>1135.87198022509</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168567</v>
+        <v>2472.724095295529</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351991</v>
+        <v>2034.581622478953</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526435</v>
+        <v>1598.671837653397</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847301</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939379</v>
+        <v>787.6807519874953</v>
       </c>
       <c r="G14" t="n">
-        <v>115.5646047172013</v>
+        <v>386.2829206107592</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L14" t="n">
-        <v>96.73597668111518</v>
+        <v>199.031688046465</v>
       </c>
       <c r="M14" t="n">
-        <v>1186.925458503958</v>
+        <v>1356.079523257016</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4493.924657556613</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774511</v>
+        <v>3726.452252901473</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3307.309789480784</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653475</v>
+        <v>2899.023665780437</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>965.4711828007305</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>792.9094712839554</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>627.0314784854781</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>457.2734747362155</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>280.5664206979717</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>114.9751457237994</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1902.127631285905</v>
       </c>
       <c r="W16" t="n">
-        <v>1742.886262583902</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697876</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168569</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
         <v>2084.815921872688</v>
@@ -5501,64 +5501,64 @@
         <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.2639626146351</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>385.866131237899</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I17" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K17" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L17" t="n">
-        <v>96.7359766811152</v>
+        <v>199.031688046465</v>
       </c>
       <c r="M17" t="n">
-        <v>1186.92545850396</v>
+        <v>1356.079523257016</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940407</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510714</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344109</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302704</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239597</v>
+        <v>4803.381259633331</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112636</v>
+        <v>4803.381259633331</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429653</v>
+        <v>4544.158956950348</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363479</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774513</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353824</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653477</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
-        <v>96.7359766811152</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>96.7359766811152</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>96.7359766811152</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>96.7359766811152</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>96.7359766811152</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>96.7359766811152</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1093.185322228298</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776222</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777443</v>
+        <v>608.7923094427939</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284816</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902378</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
         <v>183.3156618458051</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.841770713472</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.815366299764</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1512.423611633176</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1285.003940947284</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526436</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205427</v>
+        <v>944.829865684731</v>
       </c>
       <c r="F20" t="n">
-        <v>787.2639626146351</v>
+        <v>516.9624360939388</v>
       </c>
       <c r="G20" t="n">
-        <v>385.866131237899</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>96.7359766811152</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="M20" t="n">
-        <v>1186.92545850396</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940407</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510714</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P20" t="n">
         <v>4121.145983344109</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302704</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112636</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429653</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="M21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="N21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="O21" t="n">
         <v>282.3408549543107</v>
@@ -5893,19 +5893,19 @@
         <v>608.7923094427941</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
         <v>183.3156618458051</v>
@@ -5947,13 +5947,13 @@
         <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X22" t="n">
         <v>1225.468103503606</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477034</v>
+        <v>998.048432817714</v>
       </c>
     </row>
     <row r="23">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1068.769857140659</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>896.2081456238835</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>730.3301528254062</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>560.5721490761434</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>383.8650950378997</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1488.008146545538</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1260.588475859646</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6230,19 +6230,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1011.560997133398</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C28" t="n">
-        <v>838.9992856166232</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D28" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6388,7 +6388,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745664</v>
       </c>
       <c r="M28" t="n">
         <v>1341.292728955479</v>
@@ -6412,22 +6412,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2513.605954495037</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2235.172953748142</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1948.217445618573</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1676.191041204865</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
-        <v>1430.799286538277</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1203.379615852385</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6537,22 +6537,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O30" t="n">
         <v>287.8657185439749</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1068.769857140659</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>896.208145623884</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>842.879296567409</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181462</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6622,7 +6622,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2292.381813755403</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>2005.426305625834</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1733.399901212125</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1488.008146545538</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1260.588475859646</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6774,22 +6774,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O33" t="n">
         <v>287.8657185439749</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1004.611946844417</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>832.0502353276421</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>666.1722425291648</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>496.4142387799021</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2594.704009018976</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2594.704009018976</v>
       </c>
       <c r="U34" t="n">
-        <v>2228.223903459161</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V34" t="n">
-        <v>1941.268395329592</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W34" t="n">
-        <v>1669.241990915883</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X34" t="n">
-        <v>1423.850236249296</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>1196.430565563404</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6941,22 +6941,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>306.120802776629</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7011,22 +7011,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O36" t="n">
         <v>287.8657185439749</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1036.216302815309</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="C37" t="n">
-        <v>863.6545912985339</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D37" t="n">
-        <v>702.9771222577831</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E37" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878952</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
         <v>2538.261260176948</v>
       </c>
       <c r="T37" t="n">
-        <v>2538.261260176948</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2259.828259430054</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V37" t="n">
-        <v>1972.872751300484</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W37" t="n">
-        <v>1700.846346886776</v>
+        <v>1503.62932968809</v>
       </c>
       <c r="X37" t="n">
-        <v>1455.454592220188</v>
+        <v>1258.237575021502</v>
       </c>
       <c r="Y37" t="n">
-        <v>1228.034921534296</v>
+        <v>1030.81790433561</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7178,46 +7178,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O39" t="n">
         <v>287.8657185439749</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903957</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674088</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>673.121292818146</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7375,7 +7375,7 @@
         <v>1390.234335795275</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7485,25 +7485,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1015.441008084184</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>842.8792965674086</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7573,46 +7573,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774567</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N43" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878939</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798643</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y43" t="n">
-        <v>1015.441008084184</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7652,28 +7652,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R44" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
         <v>4809.322912595856</v>
@@ -7704,16 +7704,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
         <v>143.9964924545671</v>
@@ -7722,22 +7722,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O45" t="n">
         <v>287.8657185439749</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.8551150562604</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7810,46 +7810,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745634</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955476</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113121</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338902</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309244</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.679081471573</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.799635050028</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303134</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173564</v>
       </c>
       <c r="W46" t="n">
-        <v>1533.485159127727</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1288.093404461139</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1060.673733775247</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>479.9987875054318</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099319</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>339.0513993959134</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8219,25 +8219,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8462,19 +8462,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866491</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314094</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314093</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.736241906246</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314094</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314093</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314094</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>415.5588061692668</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8763,10 +8763,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,10 +8930,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>103.3290013791412</v>
       </c>
       <c r="M14" t="n">
-        <v>1101.201496790751</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,10 +9167,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>103.3290013791412</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790753</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790753</v>
+        <v>1101.201496790752</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,10 +9890,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10604,10 +10604,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.598511255489</v>
       </c>
       <c r="X11" t="n">
-        <v>267.5985112554895</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>65.20415515853264</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>223.1369608195776</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>50.14457787892849</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.5985112554905</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>96.56253959275486</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5985112554881</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>49.7319563997972</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>81.78272691405213</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>268.0111327346208</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>267.5985112554889</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>139.5921776627264</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>197.8082562505564</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>111.4236523045823</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>69.71657238081421</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>34.67467827192567</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>212.1323395461467</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>5.148518520149235</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>48.17580493063062</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>120.4463752142713</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>88.19489769745738</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.95267764171837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>56.52943299418969</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>543438.1903195521</v>
+        <v>543438.1903195522</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>543438.1903195523</v>
+        <v>543438.1903195522</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>566371.9029476538</v>
+        <v>566371.9029476537</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>566371.9029476538</v>
+        <v>566371.9029476537</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>566371.9029476538</v>
+        <v>566371.9029476537</v>
       </c>
     </row>
   </sheetData>
@@ -26320,19 +26320,19 @@
         <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>341228.6311308816</v>
+        <v>341228.6311308817</v>
       </c>
       <c r="F2" t="n">
+        <v>341228.6311308817</v>
+      </c>
+      <c r="G2" t="n">
         <v>341228.6311308815</v>
       </c>
-      <c r="G2" t="n">
-        <v>341228.6311308817</v>
-      </c>
       <c r="H2" t="n">
-        <v>341228.6311308817</v>
+        <v>341228.6311308815</v>
       </c>
       <c r="I2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="J2" t="n">
         <v>355628.8692927127</v>
@@ -26344,7 +26344,7 @@
         <v>355628.8692927127</v>
       </c>
       <c r="M2" t="n">
-        <v>355628.8692927129</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="N2" t="n">
         <v>355628.8692927128</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039029</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390664</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200268</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.7156328394</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856133</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784513</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509899</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>125788.3839715078</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>161077.0551897631</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
         <v>773.6821211687734</v>
       </c>
       <c r="F4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="G4" t="n">
         <v>773.6821211687734</v>
@@ -26454,10 +26454,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="P4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.332390782602</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814192</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8884.741140666294</v>
+        <v>-40550.33580752695</v>
       </c>
       <c r="C6" t="n">
-        <v>133306.5595190436</v>
+        <v>156841.9657721107</v>
       </c>
       <c r="D6" t="n">
-        <v>128266.3081157903</v>
+        <v>174182.5101460174</v>
       </c>
       <c r="E6" t="n">
-        <v>43136.31298003788</v>
+        <v>105123.9729671541</v>
       </c>
       <c r="F6" t="n">
-        <v>266935.6067320653</v>
+        <v>266859.0481772685</v>
       </c>
       <c r="G6" t="n">
-        <v>266935.6067320653</v>
+        <v>266859.0481772684</v>
       </c>
       <c r="H6" t="n">
-        <v>266935.6067320653</v>
+        <v>266859.0481772684</v>
       </c>
       <c r="I6" t="n">
-        <v>258739.5826632982</v>
+        <v>258716.3583239155</v>
       </c>
       <c r="J6" t="n">
-        <v>166089.8329511474</v>
+        <v>116473.2444711417</v>
       </c>
       <c r="K6" t="n">
-        <v>277104.2982961376</v>
+        <v>263267.0653889098</v>
       </c>
       <c r="L6" t="n">
-        <v>268156.6872076277</v>
+        <v>277081.0739567549</v>
       </c>
       <c r="M6" t="n">
-        <v>90313.31168567012</v>
+        <v>142091.1293437517</v>
       </c>
       <c r="N6" t="n">
-        <v>277104.2982961377</v>
+        <v>277081.073956755</v>
       </c>
       <c r="O6" t="n">
-        <v>277104.2982961377</v>
+        <v>277081.073956755</v>
       </c>
       <c r="P6" t="n">
-        <v>277104.2982961377</v>
+        <v>277081.073956755</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314094</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052257</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130502</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080524</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052257</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130502</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825302</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052257</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130502</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>328.9783078814836</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>294.4436604526433</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>30.21911529632817</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>61.61800839579489</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>110.5076572325426</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>357.9620102885977</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>54.72705223750845</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.528674734391</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.329665100430191</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>43.5930224613314</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-7.032208304403596e-13</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-7.032208304403596e-13</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>479.9987875054318</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099319</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>339.0513993959134</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34939,25 +34939,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35182,19 +35182,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866491</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314094</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314093</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.736241906246</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314094</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314093</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314094</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>415.5588061692668</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35650,10 +35650,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>103.3290013791412</v>
       </c>
       <c r="M14" t="n">
-        <v>1101.201496790751</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35887,10 +35887,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>103.3290013791412</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790753</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790753</v>
+        <v>1101.201496790752</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36598,7 +36598,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36610,10 +36610,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080417</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -36993,16 +36993,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37324,10 +37324,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37941,7 +37941,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080424</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080388</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
